--- a/CardLogic.xlsx
+++ b/CardLogic.xlsx
@@ -19,23 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
-  <si>
-    <t>B1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
   <si>
     <t>Panic</t>
   </si>
   <si>
-    <t>Cat Balou</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
-    <t>Rag Time</t>
-  </si>
-  <si>
     <t>Brawl</t>
   </si>
   <si>
@@ -51,18 +42,12 @@
     <t>Howitzer</t>
   </si>
   <si>
-    <t>Can Can</t>
-  </si>
-  <si>
     <t>Knife</t>
   </si>
   <si>
     <t>Pepperbox</t>
   </si>
   <si>
-    <t>Buffalo Rifle</t>
-  </si>
-  <si>
     <t>Punch</t>
   </si>
   <si>
@@ -99,21 +84,12 @@
     <t>Sombrero</t>
   </si>
   <si>
-    <t>Ten Gallon Hat</t>
-  </si>
-  <si>
-    <t>Iron Plate</t>
-  </si>
-  <si>
     <t>Bible</t>
   </si>
   <si>
     <t>Dodge</t>
   </si>
   <si>
-    <t>Wells Fargo</t>
-  </si>
-  <si>
     <t>Stagecoach</t>
   </si>
   <si>
@@ -298,6 +274,33 @@
   </si>
   <si>
     <t>Rule 6 - one use</t>
+  </si>
+  <si>
+    <t>B1: If</t>
+  </si>
+  <si>
+    <t>Ragtime</t>
+  </si>
+  <si>
+    <t>Cancan</t>
+  </si>
+  <si>
+    <t>Catbalou</t>
+  </si>
+  <si>
+    <t>Bang</t>
+  </si>
+  <si>
+    <t>Buffalorifle</t>
+  </si>
+  <si>
+    <t>Tengallonhat</t>
+  </si>
+  <si>
+    <t>Ironplate</t>
+  </si>
+  <si>
+    <t>Wellsfargo</t>
   </si>
 </sst>
 </file>
@@ -936,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -953,253 +956,250 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="17" customFormat="1">
       <c r="A3" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1">
       <c r="A4" s="18" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1">
       <c r="A6" s="19" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
       <c r="A7" s="20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" s="25" customFormat="1">
       <c r="A8" s="23" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" s="27" customFormat="1">
       <c r="A9" s="26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" s="27" customFormat="1">
       <c r="A10" s="28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" s="27" customFormat="1">
       <c r="A11" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" s="27" customFormat="1">
       <c r="A12" s="26" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4"/>
@@ -1207,16 +1207,16 @@
     </row>
     <row r="13" spans="1:11" s="27" customFormat="1">
       <c r="A13" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4"/>
       <c r="H13" s="4"/>
@@ -1224,16 +1224,16 @@
     </row>
     <row r="14" spans="1:11" s="27" customFormat="1">
       <c r="A14" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4"/>
       <c r="H14" s="4"/>
@@ -1241,16 +1241,16 @@
     </row>
     <row r="15" spans="1:11" s="27" customFormat="1">
       <c r="A15" s="28" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="4"/>
@@ -1258,16 +1258,16 @@
     </row>
     <row r="16" spans="1:11" s="31" customFormat="1">
       <c r="A16" s="29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F16" s="30"/>
       <c r="H16" s="30"/>
@@ -1275,16 +1275,16 @@
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1">
       <c r="A17" s="32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F17" s="33"/>
       <c r="H17" s="33"/>
@@ -1292,16 +1292,16 @@
     </row>
     <row r="18" spans="1:11" s="37" customFormat="1">
       <c r="A18" s="35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F18" s="36"/>
       <c r="H18" s="36"/>
@@ -1309,89 +1309,89 @@
     </row>
     <row r="19" spans="1:11" s="40" customFormat="1">
       <c r="A19" s="38" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="E19" s="39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H19" s="39"/>
       <c r="K19" s="39"/>
     </row>
     <row r="20" spans="1:11" s="42" customFormat="1">
       <c r="A20" s="41" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H20" s="5"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" s="42" customFormat="1">
       <c r="A21" s="43" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H21" s="5"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" s="42" customFormat="1">
       <c r="A22" s="41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H22" s="5"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" s="46" customFormat="1">
       <c r="A23" s="44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
       <c r="E23" s="45" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H23" s="45"/>
       <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:11" s="49" customFormat="1">
       <c r="A24" s="47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C24" s="48"/>
       <c r="E24" s="48"/>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="25" spans="1:11" s="51" customFormat="1">
       <c r="A25" s="50" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C25" s="6"/>
       <c r="E25" s="6"/>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="26" spans="1:11" s="51" customFormat="1">
       <c r="A26" s="50" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C26" s="6"/>
       <c r="E26" s="6"/>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="27" spans="1:11" s="51" customFormat="1">
       <c r="A27" s="50" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" s="6"/>
       <c r="E27" s="6"/>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="28" spans="1:11" s="51" customFormat="1">
       <c r="A28" s="50" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6"/>
       <c r="E28" s="6"/>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="29" spans="1:11" s="54" customFormat="1">
       <c r="A29" s="52" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C29" s="53"/>
       <c r="E29" s="53"/>
@@ -1466,12 +1466,12 @@
     </row>
     <row r="30" spans="1:11" s="57" customFormat="1">
       <c r="A30" s="55" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B30" s="56"/>
       <c r="C30" s="56"/>
       <c r="E30" s="56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F30" s="56"/>
       <c r="H30" s="56"/>
@@ -1479,12 +1479,12 @@
     </row>
     <row r="31" spans="1:11" s="59" customFormat="1">
       <c r="A31" s="58" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F31" s="7"/>
       <c r="H31" s="7"/>
@@ -1492,12 +1492,12 @@
     </row>
     <row r="32" spans="1:11" s="62" customFormat="1">
       <c r="A32" s="60" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B32" s="61"/>
       <c r="C32" s="61"/>
       <c r="E32" s="61" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F32" s="61"/>
       <c r="H32" s="61"/>
@@ -1505,14 +1505,14 @@
     </row>
     <row r="33" spans="1:11" s="64" customFormat="1">
       <c r="A33" s="63" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C33" s="11"/>
       <c r="E33" s="72" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F33" s="11"/>
       <c r="H33" s="11"/>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="34" spans="1:11" s="71" customFormat="1">
       <c r="A34" s="70" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1531,12 +1531,12 @@
     </row>
     <row r="35" spans="1:11" s="66" customFormat="1">
       <c r="A35" s="65" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F35" s="9"/>
       <c r="H35" s="9"/>
@@ -1544,12 +1544,12 @@
     </row>
     <row r="36" spans="1:11" s="66" customFormat="1">
       <c r="A36" s="65" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F36" s="9"/>
       <c r="H36" s="9"/>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="37" spans="1:11" s="71" customFormat="1">
       <c r="A37" s="70" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1568,14 +1568,14 @@
     </row>
     <row r="38" spans="1:11" s="66" customFormat="1">
       <c r="A38" s="65" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F38" s="9"/>
       <c r="H38" s="9"/>
@@ -1583,29 +1583,29 @@
     </row>
     <row r="39" spans="1:11" s="66" customFormat="1">
       <c r="A39" s="65" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H39" s="9"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" s="66" customFormat="1">
       <c r="A40" s="65" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F40" s="9"/>
       <c r="H40" s="9"/>
@@ -1613,12 +1613,12 @@
     </row>
     <row r="41" spans="1:11" s="66" customFormat="1">
       <c r="A41" s="65" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F41" s="9"/>
       <c r="H41" s="9"/>
@@ -1626,12 +1626,12 @@
     </row>
     <row r="42" spans="1:11" s="66" customFormat="1">
       <c r="A42" s="65" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F42" s="9"/>
       <c r="H42" s="9"/>
@@ -1639,12 +1639,12 @@
     </row>
     <row r="43" spans="1:11" s="66" customFormat="1">
       <c r="A43" s="65" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F43" s="9"/>
       <c r="H43" s="9"/>
@@ -1652,12 +1652,12 @@
     </row>
     <row r="44" spans="1:11" s="69" customFormat="1">
       <c r="A44" s="67" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B44" s="68"/>
       <c r="C44" s="68"/>
       <c r="E44" s="68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F44" s="68"/>
       <c r="H44" s="68"/>

--- a/CardLogic.xlsx
+++ b/CardLogic.xlsx
@@ -276,9 +276,6 @@
     <t>Rule 6 - one use</t>
   </si>
   <si>
-    <t>B1: If</t>
-  </si>
-  <si>
     <t>Ragtime</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>Wellsfargo</t>
+  </si>
+  <si>
+    <t>B3: If</t>
   </si>
 </sst>
 </file>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -965,7 +965,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>39</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1">
       <c r="A4" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1">
       <c r="A6" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:11" s="25" customFormat="1">
       <c r="A8" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>48</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="12" spans="1:11" s="27" customFormat="1">
       <c r="A12" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>48</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="26" spans="1:11" s="51" customFormat="1">
       <c r="A26" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>55</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="27" spans="1:11" s="51" customFormat="1">
       <c r="A27" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>55</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="30" spans="1:11" s="57" customFormat="1">
       <c r="A30" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="56"/>
       <c r="C30" s="56"/>

--- a/CardLogic.xlsx
+++ b/CardLogic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18740" tabRatio="500"/>
+    <workbookView xWindow="-20740" yWindow="-4500" windowWidth="21000" windowHeight="18740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -606,6 +605,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,14 +940,14 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="2" max="3" width="2.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="2" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="8"/>
     <col min="8" max="8" width="10.83203125" style="8"/>
@@ -1240,7 +1240,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" s="27" customFormat="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1256,74 +1256,74 @@
       <c r="H15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" s="31" customFormat="1">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:11" s="30" customFormat="1">
+      <c r="A16" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" spans="1:11" s="34" customFormat="1">
-      <c r="A17" s="32" t="s">
+      <c r="F16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="1:11" s="33" customFormat="1">
+      <c r="A17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="1:11" s="37" customFormat="1">
-      <c r="A18" s="35" t="s">
+      <c r="F17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" s="36" customFormat="1">
+      <c r="A18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" s="40" customFormat="1">
-      <c r="A19" s="38" t="s">
+      <c r="F18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" s="39" customFormat="1">
+      <c r="A19" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="E19" s="39" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="E19" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="K19" s="39"/>
-    </row>
-    <row r="20" spans="1:11" s="42" customFormat="1">
-      <c r="A20" s="41" t="s">
+      <c r="H19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" s="41" customFormat="1">
+      <c r="A20" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1339,8 +1339,8 @@
       <c r="H20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" s="42" customFormat="1">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:11" s="41" customFormat="1">
+      <c r="A21" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="5"/>
@@ -1354,8 +1354,8 @@
       <c r="H21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" s="42" customFormat="1">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:11" s="41" customFormat="1">
+      <c r="A22" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1371,36 +1371,36 @@
       <c r="H22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" s="46" customFormat="1">
-      <c r="A23" s="44" t="s">
+    <row r="23" spans="1:11" s="45" customFormat="1">
+      <c r="A23" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="E23" s="45" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="E23" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="1:11" s="49" customFormat="1">
-      <c r="A24" s="47" t="s">
+      <c r="H23" s="44"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" s="48" customFormat="1">
+      <c r="A24" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="K24" s="48"/>
-    </row>
-    <row r="25" spans="1:11" s="51" customFormat="1">
-      <c r="A25" s="50" t="s">
+      <c r="C24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" s="50" customFormat="1">
+      <c r="A25" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1412,8 +1412,8 @@
       <c r="H25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" s="51" customFormat="1">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:11" s="50" customFormat="1">
+      <c r="A26" s="49" t="s">
         <v>90</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1425,8 +1425,8 @@
       <c r="H26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" s="51" customFormat="1">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:11" s="50" customFormat="1">
+      <c r="A27" s="49" t="s">
         <v>91</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1438,8 +1438,8 @@
       <c r="H27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" s="51" customFormat="1">
-      <c r="A28" s="50" t="s">
+    <row r="28" spans="1:11" s="50" customFormat="1">
+      <c r="A28" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1451,34 +1451,34 @@
       <c r="H28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
-      <c r="A29" s="52" t="s">
+    <row r="29" spans="1:11" s="53" customFormat="1">
+      <c r="A29" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="K29" s="53"/>
-    </row>
-    <row r="30" spans="1:11" s="57" customFormat="1">
-      <c r="A30" s="55" t="s">
+      <c r="C29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="K29" s="52"/>
+    </row>
+    <row r="30" spans="1:11" s="56" customFormat="1">
+      <c r="A30" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="E30" s="56" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="E30" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="K30" s="56"/>
-    </row>
-    <row r="31" spans="1:11" s="59" customFormat="1">
-      <c r="A31" s="58" t="s">
+      <c r="F30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="K30" s="55"/>
+    </row>
+    <row r="31" spans="1:11" s="58" customFormat="1">
+      <c r="A31" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="7"/>
@@ -1490,36 +1490,36 @@
       <c r="H31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" s="62" customFormat="1">
-      <c r="A32" s="60" t="s">
+    <row r="32" spans="1:11" s="61" customFormat="1">
+      <c r="A32" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="E32" s="61" t="s">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="E32" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="K32" s="61"/>
-    </row>
-    <row r="33" spans="1:11" s="64" customFormat="1">
-      <c r="A33" s="63" t="s">
+      <c r="F32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="K32" s="60"/>
+    </row>
+    <row r="33" spans="1:11" s="63" customFormat="1">
+      <c r="A33" s="62" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="71" t="s">
         <v>73</v>
       </c>
       <c r="F33" s="11"/>
       <c r="H33" s="11"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" s="71" customFormat="1">
-      <c r="A34" s="70" t="s">
+    <row r="34" spans="1:11" s="70" customFormat="1">
+      <c r="A34" s="69" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="12"/>
@@ -1529,8 +1529,8 @@
       <c r="H34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" s="66" customFormat="1">
-      <c r="A35" s="65" t="s">
+    <row r="35" spans="1:11" s="65" customFormat="1">
+      <c r="A35" s="64" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="9"/>
@@ -1542,8 +1542,8 @@
       <c r="H35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" s="66" customFormat="1">
-      <c r="A36" s="65" t="s">
+    <row r="36" spans="1:11" s="65" customFormat="1">
+      <c r="A36" s="64" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="9"/>
@@ -1555,8 +1555,8 @@
       <c r="H36" s="9"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" s="71" customFormat="1">
-      <c r="A37" s="70" t="s">
+    <row r="37" spans="1:11" s="70" customFormat="1">
+      <c r="A37" s="69" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="12"/>
@@ -1566,8 +1566,8 @@
       <c r="H37" s="12"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" s="66" customFormat="1">
-      <c r="A38" s="65" t="s">
+    <row r="38" spans="1:11" s="65" customFormat="1">
+      <c r="A38" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -1581,8 +1581,8 @@
       <c r="H38" s="9"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:11" s="66" customFormat="1">
-      <c r="A39" s="65" t="s">
+    <row r="39" spans="1:11" s="65" customFormat="1">
+      <c r="A39" s="64" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -1598,8 +1598,8 @@
       <c r="H39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" s="66" customFormat="1">
-      <c r="A40" s="65" t="s">
+    <row r="40" spans="1:11" s="65" customFormat="1">
+      <c r="A40" s="64" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="9"/>
@@ -1611,8 +1611,8 @@
       <c r="H40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" s="66" customFormat="1">
-      <c r="A41" s="65" t="s">
+    <row r="41" spans="1:11" s="65" customFormat="1">
+      <c r="A41" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="9"/>
@@ -1624,8 +1624,8 @@
       <c r="H41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" s="66" customFormat="1">
-      <c r="A42" s="65" t="s">
+    <row r="42" spans="1:11" s="65" customFormat="1">
+      <c r="A42" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="9"/>
@@ -1637,8 +1637,8 @@
       <c r="H42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" s="66" customFormat="1">
-      <c r="A43" s="65" t="s">
+    <row r="43" spans="1:11" s="65" customFormat="1">
+      <c r="A43" s="64" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="9"/>
@@ -1650,18 +1650,18 @@
       <c r="H43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" s="69" customFormat="1">
-      <c r="A44" s="67" t="s">
+    <row r="44" spans="1:11" s="68" customFormat="1">
+      <c r="A44" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="E44" s="68" t="s">
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="E44" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="K44" s="68"/>
+      <c r="F44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="K44" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CardLogic.xlsx
+++ b/CardLogic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20740" yWindow="-4500" windowWidth="21000" windowHeight="18740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="18740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>Stagecoach</t>
   </si>
   <si>
-    <t>Pony Express</t>
-  </si>
-  <si>
     <t>Emporium</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>Cancan</t>
   </si>
   <si>
-    <t>Catbalou</t>
-  </si>
-  <si>
     <t>Bang</t>
   </si>
   <si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>B3: If</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>PonyExpress</t>
   </si>
 </sst>
 </file>
@@ -940,14 +940,15 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="3" width="2.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="8"/>
     <col min="8" max="8" width="10.83203125" style="8"/>
@@ -959,22 +960,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1">
@@ -982,25 +983,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="17" customFormat="1">
@@ -1010,76 +1011,76 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1">
       <c r="A4" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1">
       <c r="A6" s="19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3"/>
       <c r="K6" s="3"/>
@@ -1091,37 +1092,37 @@
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" s="25" customFormat="1">
       <c r="A8" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="24"/>
     </row>
@@ -1130,20 +1131,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4"/>
       <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -1152,20 +1153,20 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4"/>
       <c r="H10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -1174,13 +1175,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4"/>
       <c r="H11" s="4" t="s">
@@ -1190,16 +1191,16 @@
     </row>
     <row r="12" spans="1:11" s="27" customFormat="1">
       <c r="A12" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4"/>
@@ -1210,13 +1211,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="4"/>
       <c r="H13" s="4"/>
@@ -1227,13 +1228,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="4"/>
       <c r="H14" s="4"/>
@@ -1244,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="4"/>
@@ -1261,13 +1262,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="29"/>
       <c r="H16" s="29"/>
@@ -1281,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="32"/>
       <c r="H17" s="32"/>
@@ -1298,10 +1299,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="35"/>
       <c r="H18" s="35"/>
@@ -1314,10 +1315,10 @@
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="E19" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="H19" s="38"/>
       <c r="K19" s="38"/>
@@ -1327,14 +1328,14 @@
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="H20" s="5"/>
       <c r="K20" s="5"/>
@@ -1346,10 +1347,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="H21" s="5"/>
       <c r="K21" s="5"/>
@@ -1359,14 +1360,14 @@
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="5"/>
       <c r="E22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="H22" s="5"/>
       <c r="K22" s="5"/>
@@ -1378,10 +1379,10 @@
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="E23" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="44"/>
       <c r="K23" s="44"/>
@@ -1391,7 +1392,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="47"/>
       <c r="E24" s="47"/>
@@ -1404,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="6"/>
       <c r="E25" s="6"/>
@@ -1414,10 +1415,10 @@
     </row>
     <row r="26" spans="1:11" s="50" customFormat="1">
       <c r="A26" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="6"/>
       <c r="E26" s="6"/>
@@ -1427,10 +1428,10 @@
     </row>
     <row r="27" spans="1:11" s="50" customFormat="1">
       <c r="A27" s="49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="6"/>
       <c r="E27" s="6"/>
@@ -1443,7 +1444,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6"/>
       <c r="E28" s="6"/>
@@ -1456,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="52"/>
       <c r="E29" s="52"/>
@@ -1466,12 +1467,12 @@
     </row>
     <row r="30" spans="1:11" s="56" customFormat="1">
       <c r="A30" s="54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="E30" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="55"/>
       <c r="H30" s="55"/>
@@ -1484,7 +1485,7 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7"/>
       <c r="H31" s="7"/>
@@ -1492,12 +1493,12 @@
     </row>
     <row r="32" spans="1:11" s="61" customFormat="1">
       <c r="A32" s="59" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B32" s="60"/>
       <c r="C32" s="60"/>
       <c r="E32" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="60"/>
       <c r="H32" s="60"/>
@@ -1505,14 +1506,14 @@
     </row>
     <row r="33" spans="1:11" s="63" customFormat="1">
       <c r="A33" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="11"/>
       <c r="E33" s="71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="11"/>
       <c r="H33" s="11"/>
@@ -1520,7 +1521,7 @@
     </row>
     <row r="34" spans="1:11" s="70" customFormat="1">
       <c r="A34" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1531,12 +1532,12 @@
     </row>
     <row r="35" spans="1:11" s="65" customFormat="1">
       <c r="A35" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="9"/>
       <c r="H35" s="9"/>
@@ -1544,12 +1545,12 @@
     </row>
     <row r="36" spans="1:11" s="65" customFormat="1">
       <c r="A36" s="64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="9"/>
       <c r="H36" s="9"/>
@@ -1557,7 +1558,7 @@
     </row>
     <row r="37" spans="1:11" s="70" customFormat="1">
       <c r="A37" s="69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1568,14 +1569,14 @@
     </row>
     <row r="38" spans="1:11" s="65" customFormat="1">
       <c r="A38" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" s="9"/>
       <c r="H38" s="9"/>
@@ -1583,29 +1584,29 @@
     </row>
     <row r="39" spans="1:11" s="65" customFormat="1">
       <c r="A39" s="64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="9"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" s="65" customFormat="1">
       <c r="A40" s="64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40" s="9"/>
       <c r="H40" s="9"/>
@@ -1613,12 +1614,12 @@
     </row>
     <row r="41" spans="1:11" s="65" customFormat="1">
       <c r="A41" s="64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F41" s="9"/>
       <c r="H41" s="9"/>
@@ -1626,12 +1627,12 @@
     </row>
     <row r="42" spans="1:11" s="65" customFormat="1">
       <c r="A42" s="64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" s="9"/>
       <c r="H42" s="9"/>
@@ -1639,12 +1640,12 @@
     </row>
     <row r="43" spans="1:11" s="65" customFormat="1">
       <c r="A43" s="64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="9"/>
       <c r="H43" s="9"/>
@@ -1652,12 +1653,12 @@
     </row>
     <row r="44" spans="1:11" s="68" customFormat="1">
       <c r="A44" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
       <c r="E44" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F44" s="67"/>
       <c r="H44" s="67"/>
